--- a/static/questions/reading.xlsx
+++ b/static/questions/reading.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28129"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/d7b2b3c594a15c8f/Documents/Skripsi/Data/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\MSI LAPTOP\Downloads\Skripsi-main\Skripsi-main\static\questions\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{6F9D6BFB-882A-44DA-8E02-C26FBB50AF41}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{BC93E076-7B43-436C-B21A-C092162A98CD}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="13770" xr2:uid="{7807E00F-210E-4ADB-98DA-C9E40D2C9BE5}"/>
   </bookViews>
@@ -34,7 +34,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="77" uniqueCount="56">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="205">
   <si>
     <t>question</t>
   </si>
@@ -202,6 +202,453 @@
   </si>
   <si>
     <t>D. Due to the controversy, it is hard to make assumptions about the Theory of Evolution</t>
+  </si>
+  <si>
+    <t>Coffee originated in Ethiopia, where it was discovered by a goat herder named Kaldi. Legend says that his goats became energetic after eating berries from a particular tree. Coffee became popular worldwide through trade.</t>
+  </si>
+  <si>
+    <t>Where was coffee first discovered?</t>
+  </si>
+  <si>
+    <t>A. Ethiopia</t>
+  </si>
+  <si>
+    <t>B. India</t>
+  </si>
+  <si>
+    <t>C. Brazil</t>
+  </si>
+  <si>
+    <t>D. Yemen</t>
+  </si>
+  <si>
+    <t>The Great Wall of China stretches over 13,000 miles and was built to protect Chinese states from invasions. It was constructed using stone, wood, and other materials.</t>
+  </si>
+  <si>
+    <t>What was the primary purpose of the Great Wall of China?</t>
+  </si>
+  <si>
+    <t>A. Tourism</t>
+  </si>
+  <si>
+    <t>B. Defense</t>
+  </si>
+  <si>
+    <t>C. Trade</t>
+  </si>
+  <si>
+    <t>D. Religion</t>
+  </si>
+  <si>
+    <t>Shakespeare is considered one of the greatest playwrights in history. His plays include tragedies, comedies, and histories, many of which are still performed today.</t>
+  </si>
+  <si>
+    <t>What type of plays did Shakespeare write?</t>
+  </si>
+  <si>
+    <t>A. Only tragedies</t>
+  </si>
+  <si>
+    <t>B. Only comedies</t>
+  </si>
+  <si>
+    <t>C. Tragedies, comedies, and histories</t>
+  </si>
+  <si>
+    <t>D. Modern dramas</t>
+  </si>
+  <si>
+    <t>Penguins are flightless birds found mostly in the Southern Hemisphere. They are excellent swimmers and can dive to great depths to catch fish.</t>
+  </si>
+  <si>
+    <t>B. Northern Hemisphere</t>
+  </si>
+  <si>
+    <t>C. Africa</t>
+  </si>
+  <si>
+    <t>Where are penguins primarily found?</t>
+  </si>
+  <si>
+    <t>A. Asia</t>
+  </si>
+  <si>
+    <t>D. Southern Hemisphere</t>
+  </si>
+  <si>
+    <t>The Industrial Revolution began in Britain in the 18th century. It transformed manufacturing by introducing machinery powered by steam engines.</t>
+  </si>
+  <si>
+    <t>What powered machinery during the Industrial Revolution?</t>
+  </si>
+  <si>
+    <t>A. Electricity</t>
+  </si>
+  <si>
+    <t>B. Steam engines</t>
+  </si>
+  <si>
+    <t>C. Solar power</t>
+  </si>
+  <si>
+    <t>D. Wind turbines</t>
+  </si>
+  <si>
+    <t>Plastic pollution in oceans affects marine life. Many sea creatures mistake plastic for food, which can cause serious harm or death.</t>
+  </si>
+  <si>
+    <t>What is a major impact of plastic pollution in oceans?</t>
+  </si>
+  <si>
+    <t>A. It dissolves quickly</t>
+  </si>
+  <si>
+    <t>B. It reduces oxygen</t>
+  </si>
+  <si>
+    <t>C. Marine animals ingest it</t>
+  </si>
+  <si>
+    <t>D. It cleans the ocean</t>
+  </si>
+  <si>
+    <t>The Amazon Rainforest is often referred to as the "lungs of the Earth" because it produces around 20% of the world’s oxygen.</t>
+  </si>
+  <si>
+    <t>Why is the Amazon Rainforest called the "lungs of the Earth"?</t>
+  </si>
+  <si>
+    <t>A. It absorbs CO2</t>
+  </si>
+  <si>
+    <t>B. It produces oxygen</t>
+  </si>
+  <si>
+    <t>C. It provides shelter</t>
+  </si>
+  <si>
+    <t>D. It prevents erosion</t>
+  </si>
+  <si>
+    <t>The Wright brothers, Orville and Wilbur, made the first powered flight in 1903 in Kitty Hawk, North Carolina. Their airplane was called the Flyer.</t>
+  </si>
+  <si>
+    <t>When did the Wright brothers make their first flight?</t>
+  </si>
+  <si>
+    <t>A. 1903</t>
+  </si>
+  <si>
+    <t>B. 	1913</t>
+  </si>
+  <si>
+    <t>C. 1899</t>
+  </si>
+  <si>
+    <t>D. 1920</t>
+  </si>
+  <si>
+    <t>The Nile is the longest river in the world, stretching over 4,000 miles and flowing through multiple African countries, including Egypt.</t>
+  </si>
+  <si>
+    <t>What is the longest river in the world?</t>
+  </si>
+  <si>
+    <t>A. Amazon</t>
+  </si>
+  <si>
+    <t>B. Nile</t>
+  </si>
+  <si>
+    <t>C. Yangtze</t>
+  </si>
+  <si>
+    <t>D. Mississippi</t>
+  </si>
+  <si>
+    <t>Marie Curie, a pioneering physicist and chemist, was the first woman to win a Nobel Prize and is famous for her work on radioactivity.</t>
+  </si>
+  <si>
+    <t>For what achievement is Marie Curie best known?</t>
+  </si>
+  <si>
+    <t>A. Developing X-rays</t>
+  </si>
+  <si>
+    <t>B. Discovering oxygen</t>
+  </si>
+  <si>
+    <t>C. Research on radioactivity</t>
+  </si>
+  <si>
+    <t>D. Inventing electricity</t>
+  </si>
+  <si>
+    <t>The Mona Lisa, painted by Leonardo da Vinci, is one of the most famous portraits in the world. It is displayed at the Louvre Museum in Paris.</t>
+  </si>
+  <si>
+    <t>Where can you see the Mona Lisa?</t>
+  </si>
+  <si>
+    <t>A. British Museum</t>
+  </si>
+  <si>
+    <t>B. Louvre Museum</t>
+  </si>
+  <si>
+    <t>C. Vatican Museum</t>
+  </si>
+  <si>
+    <t>D. Uffizi Gallery</t>
+  </si>
+  <si>
+    <t>What is the main gas in Earth's atmosphere?</t>
+  </si>
+  <si>
+    <t>Earth’s atmosphere is composed mainly of nitrogen (78%) and oxygen (21%), with trace amounts of other gases.</t>
+  </si>
+  <si>
+    <t>A. Oxygen</t>
+  </si>
+  <si>
+    <t>B. Nitrogen</t>
+  </si>
+  <si>
+    <t>C. Carbon dioxide</t>
+  </si>
+  <si>
+    <t>D. Hydrogen</t>
+  </si>
+  <si>
+    <t>The Sahara Desert is the largest hot desert in the world, covering much of North Africa. It experiences extreme temperatures and very little rainfall.</t>
+  </si>
+  <si>
+    <t>What is the Sahara Desert known for?</t>
+  </si>
+  <si>
+    <t>The Eiffel Tower was constructed in 1889 as part of the World's Fair in Paris. Today, it is one of the most visited landmarks in the world.</t>
+  </si>
+  <si>
+    <t>Why was the Eiffel Tower originally built?</t>
+  </si>
+  <si>
+    <t>Mount Everest, the highest mountain on Earth, is located in the Himalayas on the border of Nepal and Tibet. It stands 8,848 meters above sea level.</t>
+  </si>
+  <si>
+    <t>What is the height of Mount Everest?</t>
+  </si>
+  <si>
+    <t>Water boils at 100°C at sea level, but the boiling point decreases at higher altitudes due to lower air pressure.</t>
+  </si>
+  <si>
+    <t>Why does water boil at a lower temperature at higher altitudes?</t>
+  </si>
+  <si>
+    <t>The Taj Mahal, built by Emperor Shah Jahan in the 17th century, is a white marble mausoleum located in India. It was constructed in memory of his wife Mumtaz Mahal.</t>
+  </si>
+  <si>
+    <t>Who was the Taj Mahal built for?</t>
+  </si>
+  <si>
+    <t>Honeybees play a crucial role in pollination, which helps plants grow and produce food. Without them, many crops would fail.</t>
+  </si>
+  <si>
+    <t>What role do honeybees play in agriculture?</t>
+  </si>
+  <si>
+    <t>The Leaning Tower of Pisa in Italy is famous for its unintended tilt, caused by unstable foundation soil.</t>
+  </si>
+  <si>
+    <t>What caused the Leaning Tower of Pisa to tilt?</t>
+  </si>
+  <si>
+    <t>The Roman Colosseum, completed in AD 80, was used for gladiatorial games and public spectacles in ancient Rome.</t>
+  </si>
+  <si>
+    <t>What was the Roman Colosseum primarily used for?</t>
+  </si>
+  <si>
+    <t>Coral reefs are often called the 'rainforests of the sea' because they are rich in biodiversity and support many marine species.</t>
+  </si>
+  <si>
+    <t>Why are coral reefs called the 'rainforests of the sea'?</t>
+  </si>
+  <si>
+    <t>The Statue of Liberty, a gift from France, was unveiled in 1886 in New York Harbor. It symbolizes freedom and democracy.</t>
+  </si>
+  <si>
+    <t>What does the Statue of Liberty symbolize?</t>
+  </si>
+  <si>
+    <t>Charles Darwin’s theory of evolution suggests that species adapt over time through a process called natural selection.</t>
+  </si>
+  <si>
+    <t>What process is central to Darwin's theory of evolution?</t>
+  </si>
+  <si>
+    <t>Lightning is a powerful electrical discharge caused by imbalances between storm clouds and the ground. It is often accompanied by thunder.</t>
+  </si>
+  <si>
+    <t>What causes lightning?</t>
+  </si>
+  <si>
+    <t>The Titanic, a luxury passenger ship, sank in 1912 after hitting an iceberg on its maiden voyage across the Atlantic Ocean.</t>
+  </si>
+  <si>
+    <t>Why did the Titanic sink?</t>
+  </si>
+  <si>
+    <t>A. Cold climate</t>
+  </si>
+  <si>
+    <t>B. Heavy rainfall</t>
+  </si>
+  <si>
+    <t>C. Extreme heat and size</t>
+  </si>
+  <si>
+    <t>D. Rich vegetation</t>
+  </si>
+  <si>
+    <t>A. To celebrate a king</t>
+  </si>
+  <si>
+    <t>B. For the World’s Fair</t>
+  </si>
+  <si>
+    <t>C. As a military base</t>
+  </si>
+  <si>
+    <t>D. To honor an artist</t>
+  </si>
+  <si>
+    <t>A. 7,000 meters</t>
+  </si>
+  <si>
+    <t>B. 8,848 meters</t>
+  </si>
+  <si>
+    <t>C. 9,500 meters</t>
+  </si>
+  <si>
+    <t>D. 6,500 meters</t>
+  </si>
+  <si>
+    <t>A. Higher gravity</t>
+  </si>
+  <si>
+    <t>B. Lower air pressure</t>
+  </si>
+  <si>
+    <t>C. Increased humidity</t>
+  </si>
+  <si>
+    <t xml:space="preserve">D. Strong winds	</t>
+  </si>
+  <si>
+    <t>A. Shah Jahan</t>
+  </si>
+  <si>
+    <t>B. Mumtaz Mahal</t>
+  </si>
+  <si>
+    <t>C. Akbar the Great</t>
+  </si>
+  <si>
+    <t>D. A British queen</t>
+  </si>
+  <si>
+    <t>A. Producing honey</t>
+  </si>
+  <si>
+    <t>B. Pollination</t>
+  </si>
+  <si>
+    <t>C. 	Eating pests</t>
+  </si>
+  <si>
+    <t>D. Providing wax</t>
+  </si>
+  <si>
+    <t>A. Weak bricks</t>
+  </si>
+  <si>
+    <t>B. Earthquake</t>
+  </si>
+  <si>
+    <t>C. 	Unstable soil</t>
+  </si>
+  <si>
+    <t>D. Poor design</t>
+  </si>
+  <si>
+    <t>A. Concerts</t>
+  </si>
+  <si>
+    <t>B. Gladiator games</t>
+  </si>
+  <si>
+    <t>C. Religious events</t>
+  </si>
+  <si>
+    <t>D. Markets</t>
+  </si>
+  <si>
+    <t>A. They produce oxygen</t>
+  </si>
+  <si>
+    <t>B. They are colorful</t>
+  </si>
+  <si>
+    <t>C. They support marine life</t>
+  </si>
+  <si>
+    <t>D. They are large</t>
+  </si>
+  <si>
+    <t>A. Peace</t>
+  </si>
+  <si>
+    <t>B. Freedom and democracy</t>
+  </si>
+  <si>
+    <t>D. Independence</t>
+  </si>
+  <si>
+    <t>A. Natural selection</t>
+  </si>
+  <si>
+    <t>B. Artificial selection</t>
+  </si>
+  <si>
+    <t>C. Mutation</t>
+  </si>
+  <si>
+    <t>D. Reincarnation</t>
+  </si>
+  <si>
+    <t>A. Magnetic fields</t>
+  </si>
+  <si>
+    <t>B. Electrical imbalance</t>
+  </si>
+  <si>
+    <t>C. Strong winds</t>
+  </si>
+  <si>
+    <t>D. Solar radiation</t>
+  </si>
+  <si>
+    <t>A. Fire onboard</t>
+  </si>
+  <si>
+    <t>B. Hitting an iceberg</t>
+  </si>
+  <si>
+    <t>C. Engine failure</t>
+  </si>
+  <si>
+    <t>D. Strong winds</t>
   </si>
 </sst>
 </file>
@@ -555,10 +1002,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{FCC6A217-634C-4489-9019-E1F81F05C282}">
-  <dimension ref="A1:G11"/>
+  <dimension ref="A1:G36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+    <sheetView tabSelected="1" topLeftCell="A19" workbookViewId="0">
+      <selection activeCell="G27" sqref="G27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -816,6 +1263,581 @@
         <v>16</v>
       </c>
     </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A12" t="s">
+        <v>56</v>
+      </c>
+      <c r="B12" t="s">
+        <v>57</v>
+      </c>
+      <c r="C12" t="s">
+        <v>58</v>
+      </c>
+      <c r="D12" t="s">
+        <v>59</v>
+      </c>
+      <c r="E12" t="s">
+        <v>60</v>
+      </c>
+      <c r="F12" t="s">
+        <v>61</v>
+      </c>
+      <c r="G12" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A13" t="s">
+        <v>62</v>
+      </c>
+      <c r="B13" t="s">
+        <v>63</v>
+      </c>
+      <c r="C13" t="s">
+        <v>64</v>
+      </c>
+      <c r="D13" t="s">
+        <v>65</v>
+      </c>
+      <c r="E13" t="s">
+        <v>66</v>
+      </c>
+      <c r="F13" t="s">
+        <v>67</v>
+      </c>
+      <c r="G13" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A14" t="s">
+        <v>68</v>
+      </c>
+      <c r="B14" t="s">
+        <v>69</v>
+      </c>
+      <c r="C14" t="s">
+        <v>70</v>
+      </c>
+      <c r="D14" t="s">
+        <v>71</v>
+      </c>
+      <c r="E14" t="s">
+        <v>72</v>
+      </c>
+      <c r="F14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A15" t="s">
+        <v>74</v>
+      </c>
+      <c r="B15" t="s">
+        <v>77</v>
+      </c>
+      <c r="C15" t="s">
+        <v>78</v>
+      </c>
+      <c r="D15" t="s">
+        <v>75</v>
+      </c>
+      <c r="E15" t="s">
+        <v>76</v>
+      </c>
+      <c r="F15" t="s">
+        <v>79</v>
+      </c>
+      <c r="G15" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A16" t="s">
+        <v>80</v>
+      </c>
+      <c r="B16" t="s">
+        <v>81</v>
+      </c>
+      <c r="C16" t="s">
+        <v>82</v>
+      </c>
+      <c r="D16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E16" t="s">
+        <v>84</v>
+      </c>
+      <c r="F16" t="s">
+        <v>85</v>
+      </c>
+      <c r="G16" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A17" t="s">
+        <v>86</v>
+      </c>
+      <c r="B17" t="s">
+        <v>87</v>
+      </c>
+      <c r="C17" t="s">
+        <v>88</v>
+      </c>
+      <c r="D17" t="s">
+        <v>89</v>
+      </c>
+      <c r="E17" t="s">
+        <v>90</v>
+      </c>
+      <c r="F17" t="s">
+        <v>91</v>
+      </c>
+      <c r="G17" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>92</v>
+      </c>
+      <c r="B18" t="s">
+        <v>93</v>
+      </c>
+      <c r="C18" t="s">
+        <v>94</v>
+      </c>
+      <c r="D18" t="s">
+        <v>95</v>
+      </c>
+      <c r="E18" t="s">
+        <v>96</v>
+      </c>
+      <c r="F18" t="s">
+        <v>97</v>
+      </c>
+      <c r="G18" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A19" t="s">
+        <v>98</v>
+      </c>
+      <c r="B19" t="s">
+        <v>99</v>
+      </c>
+      <c r="C19" t="s">
+        <v>100</v>
+      </c>
+      <c r="D19" t="s">
+        <v>101</v>
+      </c>
+      <c r="E19" t="s">
+        <v>102</v>
+      </c>
+      <c r="F19" t="s">
+        <v>103</v>
+      </c>
+      <c r="G19" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A20" t="s">
+        <v>104</v>
+      </c>
+      <c r="B20" t="s">
+        <v>105</v>
+      </c>
+      <c r="C20" t="s">
+        <v>106</v>
+      </c>
+      <c r="D20" t="s">
+        <v>107</v>
+      </c>
+      <c r="E20" t="s">
+        <v>108</v>
+      </c>
+      <c r="F20" t="s">
+        <v>109</v>
+      </c>
+      <c r="G20" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A21" t="s">
+        <v>110</v>
+      </c>
+      <c r="B21" t="s">
+        <v>111</v>
+      </c>
+      <c r="C21" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>113</v>
+      </c>
+      <c r="E21" t="s">
+        <v>114</v>
+      </c>
+      <c r="F21" t="s">
+        <v>115</v>
+      </c>
+      <c r="G21" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A22" t="s">
+        <v>116</v>
+      </c>
+      <c r="B22" t="s">
+        <v>117</v>
+      </c>
+      <c r="C22" t="s">
+        <v>118</v>
+      </c>
+      <c r="D22" t="s">
+        <v>119</v>
+      </c>
+      <c r="E22" t="s">
+        <v>120</v>
+      </c>
+      <c r="F22" t="s">
+        <v>121</v>
+      </c>
+      <c r="G22" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A23" t="s">
+        <v>123</v>
+      </c>
+      <c r="B23" t="s">
+        <v>122</v>
+      </c>
+      <c r="C23" t="s">
+        <v>124</v>
+      </c>
+      <c r="D23" t="s">
+        <v>125</v>
+      </c>
+      <c r="E23" t="s">
+        <v>126</v>
+      </c>
+      <c r="F23" t="s">
+        <v>127</v>
+      </c>
+      <c r="G23" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A24" t="s">
+        <v>128</v>
+      </c>
+      <c r="B24" t="s">
+        <v>129</v>
+      </c>
+      <c r="C24" t="s">
+        <v>154</v>
+      </c>
+      <c r="D24" t="s">
+        <v>155</v>
+      </c>
+      <c r="E24" t="s">
+        <v>156</v>
+      </c>
+      <c r="F24" t="s">
+        <v>157</v>
+      </c>
+      <c r="G24" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A25" t="s">
+        <v>130</v>
+      </c>
+      <c r="B25" t="s">
+        <v>131</v>
+      </c>
+      <c r="C25" t="s">
+        <v>158</v>
+      </c>
+      <c r="D25" t="s">
+        <v>159</v>
+      </c>
+      <c r="E25" t="s">
+        <v>160</v>
+      </c>
+      <c r="F25" t="s">
+        <v>161</v>
+      </c>
+      <c r="G25" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A26" t="s">
+        <v>132</v>
+      </c>
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+      <c r="C26" t="s">
+        <v>162</v>
+      </c>
+      <c r="D26" t="s">
+        <v>163</v>
+      </c>
+      <c r="E26" t="s">
+        <v>164</v>
+      </c>
+      <c r="F26" t="s">
+        <v>165</v>
+      </c>
+      <c r="G26" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A27" t="s">
+        <v>134</v>
+      </c>
+      <c r="B27" t="s">
+        <v>135</v>
+      </c>
+      <c r="C27" t="s">
+        <v>166</v>
+      </c>
+      <c r="D27" t="s">
+        <v>167</v>
+      </c>
+      <c r="E27" t="s">
+        <v>168</v>
+      </c>
+      <c r="F27" t="s">
+        <v>169</v>
+      </c>
+      <c r="G27" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A28" t="s">
+        <v>136</v>
+      </c>
+      <c r="B28" t="s">
+        <v>137</v>
+      </c>
+      <c r="C28" t="s">
+        <v>170</v>
+      </c>
+      <c r="D28" t="s">
+        <v>171</v>
+      </c>
+      <c r="E28" t="s">
+        <v>172</v>
+      </c>
+      <c r="F28" t="s">
+        <v>173</v>
+      </c>
+      <c r="G28" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A29" t="s">
+        <v>138</v>
+      </c>
+      <c r="B29" t="s">
+        <v>139</v>
+      </c>
+      <c r="C29" t="s">
+        <v>174</v>
+      </c>
+      <c r="D29" t="s">
+        <v>175</v>
+      </c>
+      <c r="E29" t="s">
+        <v>176</v>
+      </c>
+      <c r="F29" t="s">
+        <v>177</v>
+      </c>
+      <c r="G29" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A30" t="s">
+        <v>140</v>
+      </c>
+      <c r="B30" t="s">
+        <v>141</v>
+      </c>
+      <c r="C30" t="s">
+        <v>178</v>
+      </c>
+      <c r="D30" t="s">
+        <v>179</v>
+      </c>
+      <c r="E30" t="s">
+        <v>180</v>
+      </c>
+      <c r="F30" t="s">
+        <v>181</v>
+      </c>
+      <c r="G30" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A31" t="s">
+        <v>142</v>
+      </c>
+      <c r="B31" t="s">
+        <v>143</v>
+      </c>
+      <c r="C31" t="s">
+        <v>182</v>
+      </c>
+      <c r="D31" t="s">
+        <v>183</v>
+      </c>
+      <c r="E31" t="s">
+        <v>184</v>
+      </c>
+      <c r="F31" t="s">
+        <v>185</v>
+      </c>
+      <c r="G31" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A32" t="s">
+        <v>144</v>
+      </c>
+      <c r="B32" t="s">
+        <v>145</v>
+      </c>
+      <c r="C32" t="s">
+        <v>186</v>
+      </c>
+      <c r="D32" t="s">
+        <v>187</v>
+      </c>
+      <c r="E32" t="s">
+        <v>188</v>
+      </c>
+      <c r="F32" t="s">
+        <v>189</v>
+      </c>
+      <c r="G32" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A33" t="s">
+        <v>146</v>
+      </c>
+      <c r="B33" t="s">
+        <v>147</v>
+      </c>
+      <c r="C33" t="s">
+        <v>190</v>
+      </c>
+      <c r="D33" t="s">
+        <v>191</v>
+      </c>
+      <c r="E33" t="s">
+        <v>66</v>
+      </c>
+      <c r="F33" t="s">
+        <v>192</v>
+      </c>
+      <c r="G33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A34" t="s">
+        <v>148</v>
+      </c>
+      <c r="B34" t="s">
+        <v>149</v>
+      </c>
+      <c r="C34" t="s">
+        <v>193</v>
+      </c>
+      <c r="D34" t="s">
+        <v>194</v>
+      </c>
+      <c r="E34" t="s">
+        <v>195</v>
+      </c>
+      <c r="F34" t="s">
+        <v>196</v>
+      </c>
+      <c r="G34" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A35" t="s">
+        <v>150</v>
+      </c>
+      <c r="B35" t="s">
+        <v>151</v>
+      </c>
+      <c r="C35" t="s">
+        <v>197</v>
+      </c>
+      <c r="D35" t="s">
+        <v>198</v>
+      </c>
+      <c r="E35" t="s">
+        <v>199</v>
+      </c>
+      <c r="F35" t="s">
+        <v>200</v>
+      </c>
+      <c r="G35" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.35">
+      <c r="A36" t="s">
+        <v>152</v>
+      </c>
+      <c r="B36" t="s">
+        <v>153</v>
+      </c>
+      <c r="C36" t="s">
+        <v>201</v>
+      </c>
+      <c r="D36" t="s">
+        <v>202</v>
+      </c>
+      <c r="E36" t="s">
+        <v>203</v>
+      </c>
+      <c r="F36" t="s">
+        <v>204</v>
+      </c>
+      <c r="G36" t="s">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="4294967293" verticalDpi="0" r:id="rId1"/>
